--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -72,6 +72,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени от размера матрицы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -156,6 +179,7 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls/>
         <c:axId val="52297088"/>
         <c:axId val="51731456"/>
       </c:scatterChart>
@@ -165,7 +189,26 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>размер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="51731456"/>
         <c:crosses val="autoZero"/>
@@ -178,17 +221,32 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="52297088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -203,16 +261,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -500,7 +558,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
